--- a/ENVIRONMENT_FROM_SCRATCH/configurations 1.xlsx
+++ b/ENVIRONMENT_FROM_SCRATCH/configurations 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{587598F0-8CBF-4AED-9055-A070FAEFDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EE2720-3563-4E61-B413-A8B976838A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1800" windowWidth="20085" windowHeight="11385" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -458,7 +456,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L2" sqref="L2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>

--- a/ENVIRONMENT_FROM_SCRATCH/configurations 1.xlsx
+++ b/ENVIRONMENT_FROM_SCRATCH/configurations 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EE2720-3563-4E61-B413-A8B976838A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DF24B-D204-48F7-B4E0-34D2F184A9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -466,7 +466,7 @@
     <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -509,13 +509,16 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -527,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -536,295 +539,112 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <f t="shared" ref="A4:A8" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>4</v>
-      </c>
-      <c r="N6" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
@@ -838,7 +658,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
@@ -852,7 +672,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
@@ -866,7 +686,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
@@ -880,7 +700,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
@@ -894,7 +714,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
@@ -908,7 +728,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
@@ -922,7 +742,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
